--- a/data/trans_orig/IP07C23_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0A6C7B-7D86-4C10-8C68-7C67E69B4FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D8B998-57C6-4C73-B0D7-FC02EDC9D453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34AFE5E1-BD82-4991-87E0-10BE5093859F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06BEEAB4-B529-4E7D-BFE6-0E8B9DF35D06}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
   <si>
     <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,82%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
   </si>
   <si>
     <t>45,67%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>55,8%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>53,31%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -134,10 +134,10 @@
     <t>18,39%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>3,95%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,23%</t>
+    <t>16,28%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -185,88 +185,85 @@
     <t>62,89%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>59,06%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -275,247 +272,244 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -930,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB89F9F-F612-4575-9663-6F1500F5990F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70699799-0092-43F2-B0BA-243B15CB0563}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1494,13 +1488,13 @@
         <v>14457</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,13 +1509,13 @@
         <v>1182</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1536,7 +1530,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1545,13 +1539,13 @@
         <v>1182</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,13 +1560,13 @@
         <v>3494</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1581,13 +1575,13 @@
         <v>476</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1596,13 +1590,13 @@
         <v>3970</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,7 +1652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1670,13 +1664,13 @@
         <v>42715</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -1685,13 +1679,13 @@
         <v>30458</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -1700,13 +1694,13 @@
         <v>73173</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1715,13 @@
         <v>9557</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -1736,13 +1730,13 @@
         <v>8897</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -1751,13 +1745,13 @@
         <v>18454</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,7 +1772,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1787,13 +1781,13 @@
         <v>749</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1802,13 +1796,13 @@
         <v>749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1844,7 +1838,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1859,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1868,13 @@
         <v>888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1889,13 +1883,13 @@
         <v>443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1904,13 +1898,13 @@
         <v>1332</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1972,13 @@
         <v>170888</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -1993,13 +1987,13 @@
         <v>124278</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -2008,13 +2002,13 @@
         <v>295167</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2023,13 @@
         <v>78418</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -2044,13 +2038,13 @@
         <v>70319</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>165</v>
@@ -2059,13 +2053,13 @@
         <v>148737</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2074,13 @@
         <v>11731</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2095,13 +2089,13 @@
         <v>7029</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2110,13 +2104,13 @@
         <v>18760</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2125,13 @@
         <v>1182</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2152,7 +2146,7 @@
         <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2161,13 +2155,13 @@
         <v>1182</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2176,13 @@
         <v>4382</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2197,13 +2191,13 @@
         <v>920</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2212,13 +2206,13 @@
         <v>5302</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2268,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C23_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D8B998-57C6-4C73-B0D7-FC02EDC9D453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4A163B-98F2-4C26-9726-8277914E2A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06BEEAB4-B529-4E7D-BFE6-0E8B9DF35D06}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{0F6F167A-EAF3-467C-9B4A-4127E5CEE921}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
-  <si>
-    <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
+  <si>
+    <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,445 +71,487 @@
     <t>Siempre</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>Casi nunca</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -924,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70699799-0092-43F2-B0BA-243B15CB0563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36318BAA-705A-446B-8C1A-509CC9A8FAAD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1042,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>4218</v>
+        <v>872</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1057,238 +1099,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6352</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>872</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>10570</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>843</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9117</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>843</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7008</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7">
-        <v>16124</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>3004</v>
+        <v>1139</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>550</v>
+        <v>1337</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>3554</v>
+        <v>2477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3871</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6401</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="7">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10272</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6525</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8172</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>14698</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,306 +1339,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>16339</v>
+        <v>12407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30248</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>123955</v>
+        <v>2362</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>87468</v>
+        <v>2697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>211423</v>
+        <v>5058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1013</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="7">
-        <v>59745</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>54414</v>
+        <v>3792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>114159</v>
+        <v>4805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>8727</v>
+        <v>14063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I12" s="7">
-        <v>5730</v>
+        <v>32780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N12" s="7">
-        <v>14457</v>
+        <v>46843</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>1182</v>
+        <v>49671</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>54228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>1182</v>
+        <v>103899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7">
-        <v>3494</v>
+        <v>92205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="I14" s="7">
-        <v>476</v>
+        <v>109203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="N14" s="7">
-        <v>3970</v>
+        <v>201408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,306 +1647,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>42715</v>
+        <v>723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>30458</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>723</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="N16" s="7">
-        <v>73173</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
-        <v>9557</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8897</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>18454</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>4832</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>749</v>
+        <v>5060</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>749</v>
+        <v>9891</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>9396</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>15466</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>24862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>888</v>
+        <v>23801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I20" s="7">
-        <v>443</v>
+        <v>32168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>1332</v>
+        <v>55968</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,49 +1955,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,253 +2008,253 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>170888</v>
+        <v>3957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>124278</v>
+        <v>2697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>295167</v>
+        <v>6653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>78418</v>
+        <v>1013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>70319</v>
+        <v>4636</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>148737</v>
+        <v>5648</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>11731</v>
+        <v>20034</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>7029</v>
+        <v>39177</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>18760</v>
+        <v>59211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D25" s="7">
-        <v>1182</v>
+        <v>62938</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>76095</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="N25" s="7">
-        <v>1182</v>
+        <v>139033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="D26" s="7">
-        <v>4382</v>
+        <v>122530</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="I26" s="7">
-        <v>920</v>
+        <v>149543</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="N26" s="7">
-        <v>5302</v>
+        <v>272074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,54 +2263,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D27" s="7">
-        <v>266601</v>
+        <v>210472</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N27" s="7">
-        <v>469147</v>
+        <v>482619</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
